--- a/staffing/amount_of_work.xlsx
+++ b/staffing/amount_of_work.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\imagine_warehouse\staffing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FC01B7-ABCC-4620-8936-04555AD68FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2816BF-B124-4072-B0DE-92E2F16ADE4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2535" windowWidth="20880" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -486,7 +494,7 @@
         <v>10</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/staffing/amount_of_work.xlsx
+++ b/staffing/amount_of_work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\imagine_warehouse\staffing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2816BF-B124-4072-B0DE-92E2F16ADE4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5324EAE5-244E-4670-8EC4-30024440344C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="3735" windowWidth="20880" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,17 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>本日の仕事</t>
-    <rPh sb="0" eb="2">
-      <t>ホンジツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シゴト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>通常検品</t>
     <phoneticPr fontId="1"/>
@@ -83,16 +73,6 @@
     <t>掃除</t>
     <rPh sb="0" eb="2">
       <t>ソウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕事量</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -419,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,42 +438,36 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <v>44</v>
+      </c>
+      <c r="I2">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2">
-        <v>67</v>
-      </c>
-      <c r="E2">
-        <v>32</v>
-      </c>
-      <c r="F2">
-        <v>22</v>
-      </c>
-      <c r="G2">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>56</v>
-      </c>
-      <c r="I2">
-        <v>44</v>
-      </c>
       <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
         <v>28</v>
       </c>
     </row>

--- a/staffing/amount_of_work.xlsx
+++ b/staffing/amount_of_work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\imagine_warehouse\staffing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5324EAE5-244E-4670-8EC4-30024440344C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BE1936-8251-453A-8D49-E7727FFC2EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="3735" windowWidth="20880" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>通常検品</t>
     <phoneticPr fontId="1"/>
@@ -73,6 +73,19 @@
     <t>掃除</t>
     <rPh sb="0" eb="2">
       <t>ソウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日の仕事量</t>
+    <rPh sb="0" eb="2">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -399,75 +412,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="M3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>30</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>50</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>67</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>32</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>22</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>11</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>56</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>44</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>28</v>
       </c>
     </row>
